--- a/Libraries/empolyee-Performance-Data.xlsx
+++ b/Libraries/empolyee-Performance-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excler\python\spdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TY-IT\Data A\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D32166-D60B-4782-A4DB-3DDB4DFD27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BEAFE9-16B3-4289-91CD-D6F4F57045DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6993C5B4-FA5B-4BF0-A96B-B6F9CE20119B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{6993C5B4-FA5B-4BF0-A96B-B6F9CE20119B}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Name,Q1 Performance (%" sheetId="2" r:id="rId1"/>
@@ -162,9 +162,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DCE3E0-688F-4FBF-AD3B-25879C9CEBA3}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +539,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -557,7 +556,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -574,7 +573,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -591,7 +590,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -608,7 +607,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -625,7 +624,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -642,28 +641,28 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <f ca="1">RANDBETWEEN(20,60)</f>
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(20,60)</f>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:E22" ca="1" si="0">RANDBETWEEN(20,60)</f>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
@@ -672,309 +671,309 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
-      <c r="D9">
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E18">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C10">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C19">
         <f t="shared" ca="1" si="1"/>
         <v>59</v>
       </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Libraries/empolyee-Performance-Data.xlsx
+++ b/Libraries/empolyee-Performance-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TY-IT\Data A\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BEAFE9-16B3-4289-91CD-D6F4F57045DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69895766-780A-4294-9098-06A0A76B357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{6993C5B4-FA5B-4BF0-A96B-B6F9CE20119B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Employee Name,Q1 Performance (%'!$A$1:$E$23</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Employee Name,Q1 Performance (%'!$A$1:$E$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Employee Name</t>
   </si>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7178345-83C2-4BFC-85E1-60FC1C9CFFF7}" name="Employee_Name_Q1_Performance_____Q2" displayName="Employee_Name_Q1_Performance_____Q2" ref="A1:E23" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7178345-83C2-4BFC-85E1-60FC1C9CFFF7}" name="Employee_Name_Q1_Performance_____Q2" displayName="Employee_Name_Q1_Performance_____Q2" ref="A1:E67" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5DEFBA73-EB64-45CC-95FC-F70EB78C5F7B}" uniqueName="1" name="Employee Name" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{F4DD7571-EBC6-4019-8859-CC99A0717FFA}" uniqueName="2" name="Q1 Performance (%)" queryTableFieldId="2"/>
@@ -509,11 +509,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DCE3E0-688F-4FBF-AD3B-25879C9CEBA3}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -646,19 +644,19 @@
       </c>
       <c r="B8">
         <f ca="1">RANDBETWEEN(20,60)</f>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(20,60)</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:E22" ca="1" si="0">RANDBETWEEN(20,60)</f>
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,19 +665,19 @@
       </c>
       <c r="B9">
         <f t="shared" ref="B9:E23" ca="1" si="1">RANDBETWEEN(20,60)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,19 +686,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,19 +707,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,19 +728,19 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,19 +749,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,19 +770,19 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,19 +791,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,19 +812,19 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,19 +833,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -856,15 +854,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
@@ -877,19 +875,19 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -898,19 +896,19 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -919,19 +917,19 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,19 +938,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,19 +959,457 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>85</v>
+      </c>
+      <c r="C24">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>78</v>
+      </c>
+      <c r="C25">
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>79</v>
+      </c>
+      <c r="E25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>91</v>
+      </c>
+      <c r="D26">
+        <v>95</v>
+      </c>
+      <c r="E26">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>88</v>
+      </c>
+      <c r="C27">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>89</v>
+      </c>
+      <c r="E27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <v>82</v>
+      </c>
+      <c r="E28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="D29">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <f ca="1">RANDBETWEEN(20,60)</f>
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <f ca="1">RANDBETWEEN(20,60)</f>
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:E44" ca="1" si="2">RANDBETWEEN(20,60)</f>
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:E45" ca="1" si="3">RANDBETWEEN(20,60)</f>
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B41">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Libraries/empolyee-Performance-Data.xlsx
+++ b/Libraries/empolyee-Performance-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TY-IT\Data A\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69895766-780A-4294-9098-06A0A76B357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFD43A0-6045-48B8-BF58-B012FE363349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{6993C5B4-FA5B-4BF0-A96B-B6F9CE20119B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Employee Name</t>
   </si>
@@ -509,9 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DCE3E0-688F-4FBF-AD3B-25879C9CEBA3}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -644,7 +646,7 @@
       </c>
       <c r="B8">
         <f ca="1">RANDBETWEEN(20,60)</f>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(20,60)</f>
@@ -652,11 +654,11 @@
       </c>
       <c r="D8">
         <f t="shared" ref="D8:E22" ca="1" si="0">RANDBETWEEN(20,60)</f>
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,19 +667,19 @@
       </c>
       <c r="B9">
         <f t="shared" ref="B9:E23" ca="1" si="1">RANDBETWEEN(20,60)</f>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,19 +688,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,19 +709,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,19 +730,19 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,19 +751,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,19 +772,19 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,19 +793,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,19 +814,19 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,19 +835,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -854,19 +856,19 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,19 +877,19 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,19 +898,19 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,19 +919,19 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,19 +940,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,457 +961,19 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>85</v>
-      </c>
-      <c r="C24">
-        <v>88</v>
-      </c>
-      <c r="D24">
-        <v>90</v>
-      </c>
-      <c r="E24">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>78</v>
-      </c>
-      <c r="C25">
-        <v>82</v>
-      </c>
-      <c r="D25">
-        <v>79</v>
-      </c>
-      <c r="E25">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>92</v>
-      </c>
-      <c r="C26">
-        <v>91</v>
-      </c>
-      <c r="D26">
-        <v>95</v>
-      </c>
-      <c r="E26">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>88</v>
-      </c>
-      <c r="C27">
-        <v>85</v>
-      </c>
-      <c r="D27">
-        <v>89</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>75</v>
-      </c>
-      <c r="C28">
-        <v>80</v>
-      </c>
-      <c r="D28">
-        <v>82</v>
-      </c>
-      <c r="E28">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>56</v>
-      </c>
-      <c r="C29">
-        <v>89</v>
-      </c>
-      <c r="D29">
-        <v>51</v>
-      </c>
-      <c r="E29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <f ca="1">RANDBETWEEN(20,60)</f>
-        <v>23</v>
-      </c>
-      <c r="C30">
-        <f ca="1">RANDBETWEEN(20,60)</f>
-        <v>23</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ref="D30:E44" ca="1" si="2">RANDBETWEEN(20,60)</f>
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ref="B31:E45" ca="1" si="3">RANDBETWEEN(20,60)</f>
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="2"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ca="1" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="2"/>
         <v>31</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="2"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="2"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
       </c>
     </row>
   </sheetData>
